--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -1,44 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26612"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2754" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B9004C-64ED-4A23-9086-D030CE353CE7}"/>
+  <xr:revisionPtr revIDLastSave="2768" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6067D880-C0F1-4815-BA80-D591323E70B3}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0609" sheetId="106" r:id="rId1"/>
-    <sheet name="0602" sheetId="105" r:id="rId2"/>
-    <sheet name="0526" sheetId="104" r:id="rId3"/>
-    <sheet name="0519" sheetId="103" r:id="rId4"/>
-    <sheet name="0502" sheetId="102" r:id="rId5"/>
-    <sheet name="0428" sheetId="101" r:id="rId6"/>
-    <sheet name="0421" sheetId="100" r:id="rId7"/>
-    <sheet name="0407" sheetId="99" r:id="rId8"/>
-    <sheet name="0331" sheetId="98" r:id="rId9"/>
-    <sheet name="0324" sheetId="97" r:id="rId10"/>
-    <sheet name="0310" sheetId="96" r:id="rId11"/>
-    <sheet name="0303" sheetId="95" r:id="rId12"/>
-    <sheet name="0228" sheetId="94" r:id="rId13"/>
-    <sheet name="0224" sheetId="93" r:id="rId14"/>
-    <sheet name="0210" sheetId="92" r:id="rId15"/>
-    <sheet name="0203" sheetId="91" r:id="rId16"/>
-    <sheet name="0127" sheetId="90" r:id="rId17"/>
-    <sheet name="0120" sheetId="89" r:id="rId18"/>
-    <sheet name="0106" sheetId="88" r:id="rId19"/>
-    <sheet name="1230" sheetId="87" r:id="rId20"/>
-    <sheet name="1223" sheetId="86" r:id="rId21"/>
-    <sheet name="1209" sheetId="85" r:id="rId22"/>
-    <sheet name="1202" sheetId="84" r:id="rId23"/>
-    <sheet name="1125" sheetId="83" r:id="rId24"/>
-    <sheet name="1118" sheetId="82" r:id="rId25"/>
-    <sheet name="1111" sheetId="81" r:id="rId26"/>
-    <sheet name="1104" sheetId="80" r:id="rId27"/>
-    <sheet name="1031" sheetId="79" r:id="rId28"/>
-    <sheet name="1021" sheetId="78" r:id="rId29"/>
-    <sheet name="1012" sheetId="77" r:id="rId30"/>
-    <sheet name="1007" sheetId="76" r:id="rId31"/>
+    <sheet name="0616" sheetId="107" r:id="rId1"/>
+    <sheet name="0609" sheetId="106" r:id="rId2"/>
+    <sheet name="0602" sheetId="105" r:id="rId3"/>
+    <sheet name="0526" sheetId="104" r:id="rId4"/>
+    <sheet name="0519" sheetId="103" r:id="rId5"/>
+    <sheet name="0502" sheetId="102" r:id="rId6"/>
+    <sheet name="0428" sheetId="101" r:id="rId7"/>
+    <sheet name="0421" sheetId="100" r:id="rId8"/>
+    <sheet name="0407" sheetId="99" r:id="rId9"/>
+    <sheet name="0331" sheetId="98" r:id="rId10"/>
+    <sheet name="0324" sheetId="97" r:id="rId11"/>
+    <sheet name="0310" sheetId="96" r:id="rId12"/>
+    <sheet name="0303" sheetId="95" r:id="rId13"/>
+    <sheet name="0228" sheetId="94" r:id="rId14"/>
+    <sheet name="0224" sheetId="93" r:id="rId15"/>
+    <sheet name="0210" sheetId="92" r:id="rId16"/>
+    <sheet name="0203" sheetId="91" r:id="rId17"/>
+    <sheet name="0127" sheetId="90" r:id="rId18"/>
+    <sheet name="0120" sheetId="89" r:id="rId19"/>
+    <sheet name="0106" sheetId="88" r:id="rId20"/>
+    <sheet name="1230" sheetId="87" r:id="rId21"/>
+    <sheet name="1223" sheetId="86" r:id="rId22"/>
+    <sheet name="1209" sheetId="85" r:id="rId23"/>
+    <sheet name="1202" sheetId="84" r:id="rId24"/>
+    <sheet name="1125" sheetId="83" r:id="rId25"/>
+    <sheet name="1118" sheetId="82" r:id="rId26"/>
+    <sheet name="1111" sheetId="81" r:id="rId27"/>
+    <sheet name="1104" sheetId="80" r:id="rId28"/>
+    <sheet name="1031" sheetId="79" r:id="rId29"/>
+    <sheet name="1021" sheetId="78" r:id="rId30"/>
+    <sheet name="1012" sheetId="77" r:id="rId31"/>
+    <sheet name="1007" sheetId="76" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="11">
   <si>
     <t>As end of</t>
   </si>
@@ -479,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F925CCFA-0237-4842-A0BC-CB57165C2065}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9C509E-842C-4130-BBA9-64F818CC1D36}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,19 +502,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="10">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1555.11</v>
+        <v>1559.39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="E2" s="9">
         <f>(E1-E13)/E13</f>
-        <v>1.5615203761755391E-2</v>
+        <v>2.7522168849793264E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75">
@@ -538,17 +539,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>1925100</v>
+        <v>2014740</v>
       </c>
       <c r="C4" s="7">
-        <v>-831200</v>
+        <v>-834595</v>
       </c>
       <c r="D4" s="5">
         <f>C4/B4</f>
-        <v>-0.43176977819334061</v>
+        <v>-0.4142445179030545</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -559,11 +560,11 @@
         <v>764100</v>
       </c>
       <c r="C5" s="7">
-        <v>-144300</v>
+        <v>-144900</v>
       </c>
       <c r="D5" s="5">
         <f>C5/B5</f>
-        <v>-0.18884962701217117</v>
+        <v>-0.18963486454652531</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -578,11 +579,11 @@
         <v>3233500</v>
       </c>
       <c r="C6" s="7">
-        <v>-1276500</v>
+        <v>-1227500</v>
       </c>
       <c r="D6" s="5">
         <f>C6/B6</f>
-        <v>-0.39477346528529456</v>
+        <v>-0.37961960723674038</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -592,15 +593,15 @@
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <f>SUM(B4:B6)</f>
-        <v>5922700</v>
+        <v>6012340</v>
       </c>
       <c r="C7" s="6">
         <f>SUM(C4:C6)</f>
-        <v>-2252000</v>
+        <v>-2206995</v>
       </c>
       <c r="D7" s="5">
         <f>C7/B7</f>
-        <v>-0.38023198878889697</v>
+        <v>-0.36707754385147878</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -615,14 +616,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="7">
-        <v>5734150</v>
+        <v>5558300</v>
       </c>
       <c r="C9" s="7">
-        <v>-1261105</v>
+        <v>-1306290</v>
       </c>
       <c r="D9" s="5">
         <f>C9/B9</f>
-        <v>-0.21992884734441898</v>
+        <v>-0.23501610204558948</v>
       </c>
       <c r="E9">
         <v>14</v>
@@ -631,11 +632,11 @@
     <row r="10" spans="1:6">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>484139.5</v>
+        <v>472105</v>
       </c>
       <c r="D10" s="5">
         <f>C10/B9</f>
-        <v>8.4430909550674463E-2</v>
+        <v>8.4936941151071366E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
@@ -644,19 +645,19 @@
       </c>
       <c r="B11" s="6">
         <f>B7+B9</f>
-        <v>11656850</v>
+        <v>11570640</v>
       </c>
       <c r="C11" s="6">
         <f>C7+C9</f>
-        <v>-3513105</v>
+        <v>-3513285</v>
       </c>
       <c r="D11" s="5">
         <f>C11/B11</f>
-        <v>-0.30137687282584918</v>
+        <v>-0.30363791458380868</v>
       </c>
       <c r="E11">
         <f>E4+E5+E6+E9</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
@@ -664,18 +665,18 @@
         <v>0</v>
       </c>
       <c r="C13" s="10">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1531.2</v>
+        <v>1555.11</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="E14" s="9">
-        <v>-2.7484336533326564E-3</v>
+        <v>1.5615203761755391E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -700,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="7">
-        <v>1756300</v>
+        <v>1925100</v>
       </c>
       <c r="C16" s="7">
-        <v>-756900</v>
+        <v>-831200</v>
       </c>
       <c r="D16" s="5">
-        <v>-0.43096281956385585</v>
+        <v>-0.43176977819334061</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -717,16 +718,16 @@
         <v>3</v>
       </c>
       <c r="B17" s="7">
-        <v>912900</v>
+        <v>764100</v>
       </c>
       <c r="C17" s="7">
-        <v>-243300</v>
+        <v>-144300</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.26651330923430827</v>
+        <v>-0.18884962701217117</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -737,10 +738,10 @@
         <v>3233500</v>
       </c>
       <c r="C18" s="7">
-        <v>-1287800</v>
+        <v>-1276500</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.39826813050873666</v>
+        <v>-0.39477346528529456</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -749,13 +750,13 @@
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>5902700</v>
+        <v>5922700</v>
       </c>
       <c r="C19" s="6">
-        <v>-2288000</v>
+        <v>-2252000</v>
       </c>
       <c r="D19" s="5">
-        <v>-0.38761922510037777</v>
+        <v>-0.38023198878889697</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
@@ -770,13 +771,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="7">
-        <v>5764750</v>
+        <v>5734150</v>
       </c>
       <c r="C21" s="7">
-        <v>-1332505</v>
+        <v>-1261105</v>
       </c>
       <c r="D21" s="5">
-        <v>-0.23114705754802897</v>
+        <v>-0.21992884734441898</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -788,7 +789,7 @@
         <v>484139.5</v>
       </c>
       <c r="D22" s="5">
-        <v>8.3982739928010752E-2</v>
+        <v>8.4430909550674463E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75">
@@ -796,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="6">
-        <v>11667450</v>
+        <v>11656850</v>
       </c>
       <c r="C23" s="6">
-        <v>-3620505</v>
+        <v>-3513105</v>
       </c>
       <c r="D23" s="5">
-        <v>-0.31030816502320557</v>
+        <v>-0.30137687282584918</v>
       </c>
       <c r="E23">
         <v>27</v>
@@ -814,6 +815,343 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB79DCB-16F1-431F-A297-0C8D55E47032}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>45016</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1609.17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>1.0880422150328337E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1974900</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-671000</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.33976403868550309</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>669900</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-118200</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.17644424540976264</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3210700</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1029350</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.32059986918740463</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5855500</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1818550</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.31057125779181965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5558300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-976525</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.17568771027112606</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>466957</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.4010758685209505E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11413800</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2795075</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.24488557710841263</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>45009</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1591.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>1.7156549520766715E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1974900</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-662400</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.33540938781710466</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>669900</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-113700</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.16972682489923868</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3210700</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1051450</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.32748310337309622</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5855500</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1827550</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.3121082742720519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5593300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-934425</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.16706148427583001</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>466957</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.3485062485473688E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11448800</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2761975</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.24124580742086507</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3673976-3CD8-402C-A94E-027C764A8651}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -1150,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8DBAFE-2CA1-43E9-AA4C-8C4A7E6D5B6E}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -1487,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6F0B87-89F1-4BDE-A748-CD348F83E0A4}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -1824,7 +2162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1756BD0B-A79F-4521-9DFA-CED233837B82}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2161,7 +2499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBD0CC4-22F0-49BC-B057-37E97FBE7A14}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2498,7 +2836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4DE434-8EB0-459E-8102-3AA330B0A12F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2835,7 +3173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F01A0D-25B8-4CB3-8FCF-F0CBE7FF18A0}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3172,7 +3510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CB343B-E546-48B7-B00F-DB173C381BF1}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3509,7 +3847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7448AD41-CBFC-4D5D-B471-4BAE4228F78D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3846,7 +4184,342 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F925CCFA-0237-4842-A0BC-CB57165C2065}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>45086</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1555.11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>1.5615203761755391E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1925100</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-831200</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.43176977819334061</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>764100</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-144300</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.18884962701217117</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3233500</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1276500</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.39477346528529456</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5922700</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2252000</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.38023198878889697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5734150</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1261105</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.21992884734441898</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>484139.5</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.4430909550674463E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11656850</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-3513105</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.30137687282584918</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>45079</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1531.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-2.7484336533326564E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1756300</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-756900</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.43096281956385585</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>912900</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-243300</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.26651330923430827</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3233500</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1287800</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.39826813050873666</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5902700</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2288000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.38761922510037777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5764750</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1332505</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.23114705754802897</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>484139.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.3982739928010752E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11667450</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-3620505</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.31030816502320557</v>
+      </c>
+      <c r="E23">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE040F4-D437-4BCC-BFB7-6750205043CB}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -4183,7 +4856,3040 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94DAE9E-5892-4688-B0B8-49B7ABD40E7A}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44925</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>243000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-37800</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.15555555555555556</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2767500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-538500</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.194579945799458</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2734950</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-951750</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.34799539296879284</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5745450</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1528050</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.26595828003028482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-703700</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.13132896627661758</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11103750</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2231750</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.20099065630980525</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44918</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>243000</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-42600</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.17530864197530865</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2818500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-631550</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.22407308852226362</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1084200</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.36255413064923342</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6051950</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1758350</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.29054271763646428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-740500</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.13819681615437732</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11410250</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2498850</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.21900046011261803</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF5337A-3AF7-4E82-A563-E0179D83D079}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44918</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>243000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-42600</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.17530864197530865</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2818500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-631550</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.22407308852226362</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1084200</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36255413064923342</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6051950</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1758350</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.29054271763646428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-740500</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.13819681615437732</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11410250</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2498850</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.21900046011261803</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44904</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-1.126928723281129E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>291600</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-57120</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.19588477366255144</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-561550</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.21989231522271169</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1106200</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.36991088297747832</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5835800</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1724870</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.29556701737550978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-809300</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.15103670940410205</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11194100</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2534170</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.22638443465754282</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB25F7-2A12-4AC1-9D7D-356A85181936}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44904</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>-1.126928723281129E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>291600</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-57120</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.19588477366255144</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-561550</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.21989231522271169</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1106200</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36991088297747832</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5835800</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1724870</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.29556701737550978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-809300</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.15103670940410205</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11194100</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2534170</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.22638443465754282</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44897</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1641.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>1.2826682460946294E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-72600</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.21340388007054673</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-558350</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.21863925599608419</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1086950</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.36347372469026401</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5884400</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1717900</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.29194140439127186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-777300</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.14506466603213705</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11242700</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2495200</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.22193956967632331</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10FBD0F-E711-40AB-B04C-504DAC97DAD1}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44897</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1641.63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>1.2826682460946294E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-72600</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.21340388007054673</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-558350</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.21863925599608419</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1086950</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36347372469026401</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5884400</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1717900</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.29194140439127186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-777300</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.14506466603213705</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11242700</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2495200</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.22193956967632331</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44890</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1620.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>2.1392622636608643E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-72720</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.21375661375661376</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-640825</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.25093489965736659</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1101250</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.3682556137036232</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5884400</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1814795</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.30840782407722112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5283300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-791200</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.14975488804345768</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>470895</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.9128953494974739E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11167700</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2605995</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.2333510928839421</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E048857-6133-4F63-8B69-BD836A7A1BCA}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44890</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1620.84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>2.1392622636608643E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-72720</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.21375661375661376</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-640825</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.25093489965736659</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1101250</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.3682556137036232</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5884400</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1814795</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.30840782407722112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5283300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-791200</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.14975488804345768</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>470895</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.9128953494974739E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11167700</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2605995</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.2333510928839421</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44883</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1617.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-1.2160338119697705E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-67560</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.19858906525573192</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2658750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-573150</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.21557122708039492</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1086350</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.36327308599040276</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5989400</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1727060</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.28835275653654791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5189100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-700200</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.13493669422443197</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>470895</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.074695033820894E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11178500</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2427260</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.21713646732566982</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8DDDB9-2F12-43CB-8C09-0C6CA6EFFA7C}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44883</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1617.38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>-1.2160338119697705E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-67560</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.19858906525573192</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2658750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-573150</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.21557122708039492</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1086350</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36327308599040276</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5989400</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1727060</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.28835275653654791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5189100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-700200</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.13493669422443197</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>470895</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.074695033820894E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11178500</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2427260</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.21713646732566982</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44876</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1637.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>6.7452899798317841E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>388800</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-87360</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.22469135802469137</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-659950</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.2584238864415076</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1038350</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.34722199000150478</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5933000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1785660</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.30097084105848643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5003100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-693500</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.13861405928324438</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>461836</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.2309967819951627E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10936100</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2479160</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.22669507411234352</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1DF9C9-A045-4537-847E-58AB49A0F240}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44876</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1637.29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>6.7452899798317841E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>388800</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-87360</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.22469135802469137</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-659950</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.2584238864415076</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1038350</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.34722199000150478</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5933000</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1785660</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.30097084105848643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5003100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-693500</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.13861405928324438</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>461836</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2309967819951627E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10936100</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2479160</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.22669507411234352</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44869</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1626.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>1.0915239066112997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-199900</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.18731259370314843</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553700</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-679325</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.26601597681795042</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2515250</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-894158</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.3554946824371335</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6136150</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1773383</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.28900580983189783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4924100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-800150</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.1624966999045511</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>434774</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.8295119920391546E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11060250</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2573533</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.23268307678397865</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36C1D16-9650-498C-A9CB-3013046074CB}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44869</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1626.32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>1.0915239066112997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-199900</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.18731259370314843</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553700</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-679325</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.26601597681795042</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2515250</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-894158</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.3554946824371335</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6136150</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1773383</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.28900580983189783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4924100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-800150</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.1624966999045511</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>434774</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.8295119920391546E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11060250</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2573533</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.23268307678397865</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44865</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1608.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>1.0064480483195502E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-215520</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.20194902548725638</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-793200</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.2954189944134078</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2579625</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-968625</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.37549062363715657</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6331825</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1977345</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.31228674197407541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4924100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-890750</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.18089600129972991</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>434814</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.8303243232265793E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11255925</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2868095</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.25480757911944152</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1547CAF5-AB95-4B4D-81C0-7BB1FCCFFE03}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44865</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1608.76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>1.0064480483195502E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-215520</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.20194902548725638</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-793200</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.2954189944134078</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2579625</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-968625</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.37549062363715657</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6331825</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1977345</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.31228674197407541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4924100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-890750</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.18089600129972991</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>434814</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.8303243232265793E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11255925</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2868095</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.25480757911944152</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44855</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1592.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>2.0470533963787365E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-222600</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.20858320839580211</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-802575</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.29891061452513967</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-981525</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.35908903827685551</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6485575</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2006700</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.30940972851289206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4899100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-903700</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.18446245228715477</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>431374</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.8051682962176719E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11384675</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2910400</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.25564190457786456</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6C0A1F-7401-4211-8CBA-1ED84DA6D6AC}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -4518,3040 +8224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94DAE9E-5892-4688-B0B8-49B7ABD40E7A}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44925</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>243000</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-37800</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.15555555555555556</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2767500</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-538500</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.194579945799458</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2734950</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-951750</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.34799539296879284</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5745450</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1528050</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.26595828003028482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-703700</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.13132896627661758</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11103750</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2231750</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.20099065630980525</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44918</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>243000</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-42600</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.17530864197530865</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2818500</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-631550</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.22407308852226362</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1084200</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.36255413064923342</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6051950</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1758350</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.29054271763646428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-740500</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.13819681615437732</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11410250</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2498850</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.21900046011261803</v>
-      </c>
-      <c r="E23">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF5337A-3AF7-4E82-A563-E0179D83D079}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44918</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>243000</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-42600</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.17530864197530865</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2818500</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-631550</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.22407308852226362</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1084200</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36255413064923342</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6051950</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1758350</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.29054271763646428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-740500</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.13819681615437732</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11410250</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2498850</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.21900046011261803</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44904</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>-1.126928723281129E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>291600</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-57120</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.19588477366255144</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-561550</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.21989231522271169</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1106200</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.36991088297747832</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5835800</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1724870</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.29556701737550978</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-809300</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.15103670940410205</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11194100</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2534170</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.22638443465754282</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB25F7-2A12-4AC1-9D7D-356A85181936}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44904</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>-1.126928723281129E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>291600</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-57120</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.19588477366255144</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-561550</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.21989231522271169</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1106200</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36991088297747832</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5835800</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1724870</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.29556701737550978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-809300</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.15103670940410205</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11194100</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2534170</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.22638443465754282</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44897</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1641.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>1.2826682460946294E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-72600</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.21340388007054673</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-558350</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.21863925599608419</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1086950</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.36347372469026401</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5884400</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1717900</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.29194140439127186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-777300</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.14506466603213705</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11242700</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2495200</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.22193956967632331</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10FBD0F-E711-40AB-B04C-504DAC97DAD1}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44897</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1641.63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>1.2826682460946294E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-72600</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.21340388007054673</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-558350</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.21863925599608419</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1086950</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36347372469026401</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5884400</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1717900</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.29194140439127186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-777300</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.14506466603213705</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11242700</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2495200</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.22193956967632331</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44890</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1620.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>2.1392622636608643E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-72720</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.21375661375661376</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-640825</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.25093489965736659</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1101250</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.3682556137036232</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5884400</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1814795</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.30840782407722112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5283300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-791200</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.14975488804345768</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>470895</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.9128953494974739E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11167700</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2605995</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.2333510928839421</v>
-      </c>
-      <c r="E23">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E048857-6133-4F63-8B69-BD836A7A1BCA}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44890</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1620.84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>2.1392622636608643E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-72720</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.21375661375661376</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-640825</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.25093489965736659</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1101250</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.3682556137036232</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5884400</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1814795</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.30840782407722112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5283300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-791200</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.14975488804345768</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>470895</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.9128953494974739E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11167700</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2605995</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.2333510928839421</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44883</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1617.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>-1.2160338119697705E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-67560</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.19858906525573192</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2658750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-573150</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.21557122708039492</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1086350</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.36327308599040276</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5989400</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1727060</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.28835275653654791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5189100</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-700200</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.13493669422443197</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>470895</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.074695033820894E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11178500</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2427260</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.21713646732566982</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8DDDB9-2F12-43CB-8C09-0C6CA6EFFA7C}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44883</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1617.38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>-1.2160338119697705E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-67560</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.19858906525573192</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2658750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-573150</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.21557122708039492</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1086350</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36327308599040276</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5989400</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1727060</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.28835275653654791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5189100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-700200</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.13493669422443197</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>470895</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.074695033820894E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11178500</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2427260</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.21713646732566982</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44876</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1637.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>6.7452899798317841E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>388800</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-87360</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.22469135802469137</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-659950</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.2584238864415076</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1038350</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.34722199000150478</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5933000</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1785660</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.30097084105848643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5003100</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-693500</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.13861405928324438</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>461836</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.2309967819951627E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>10936100</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2479160</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.22669507411234352</v>
-      </c>
-      <c r="E23">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1DF9C9-A045-4537-847E-58AB49A0F240}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44876</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1637.29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>6.7452899798317841E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>388800</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-87360</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.22469135802469137</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-659950</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.2584238864415076</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1038350</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.34722199000150478</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5933000</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1785660</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.30097084105848643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5003100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-693500</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.13861405928324438</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>461836</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2309967819951627E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>10936100</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2479160</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.22669507411234352</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44869</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1626.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>1.0915239066112997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-199900</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.18731259370314843</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553700</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-679325</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.26601597681795042</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2515250</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-894158</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.3554946824371335</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6136150</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1773383</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.28900580983189783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4924100</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-800150</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.1624966999045511</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>434774</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.8295119920391546E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11060250</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2573533</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.23268307678397865</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36C1D16-9650-498C-A9CB-3013046074CB}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44869</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1626.32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>1.0915239066112997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-199900</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.18731259370314843</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553700</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-679325</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.26601597681795042</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2515250</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-894158</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.3554946824371335</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6136150</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1773383</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.28900580983189783</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4924100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-800150</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.1624966999045511</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>434774</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.8295119920391546E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11060250</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2573533</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.23268307678397865</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44865</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1608.76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>1.0064480483195502E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-215520</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.20194902548725638</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-793200</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.2954189944134078</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2579625</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-968625</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.37549062363715657</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6331825</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1977345</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.31228674197407541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4924100</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-890750</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.18089600129972991</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>434814</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.8303243232265793E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11255925</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2868095</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.25480757911944152</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1547CAF5-AB95-4B4D-81C0-7BB1FCCFFE03}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44865</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1608.76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>1.0064480483195502E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-215520</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.20194902548725638</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-793200</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.2954189944134078</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2579625</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-968625</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.37549062363715657</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6331825</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1977345</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.31228674197407541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4924100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-890750</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.18089600129972991</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>434814</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.8303243232265793E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11255925</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2868095</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.25480757911944152</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44855</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1592.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>2.0470533963787365E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-222600</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.20858320839580211</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-802575</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.29891061452513967</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-981525</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.35908903827685551</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6485575</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-2006700</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.30940972851289206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4899100</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-903700</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.18446245228715477</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>431374</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.8051682962176719E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11384675</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2910400</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.25564190457786456</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5107ADB-96F4-4457-BBFF-9DCEC53934AC}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -7888,7 +8561,676 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30372EA1-5CCF-4137-9424-938A20BE20D7}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44846</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1560.78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>-1.1639099267965317E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-231480</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.21690404797601198</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-865950</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.32251396648044695</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-989175</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36188777610097406</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6485575</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2086605</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.32173014728840543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4899100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-910450</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.18584025637361964</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>431374</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.8051682962176719E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11384675</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2997055</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.26325345255793425</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44841</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1579.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-6.51144063264774E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-216200</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.20258620689655171</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-825750</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.3075418994413408</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-935775</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.34235148854438197</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6485575</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1977725</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.30494212155437261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4815850</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-843300</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.17510927458288775</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>412624</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11301425</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2821025</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.24961675186978632</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66E9FA7-338A-465C-B22A-F5F9311A3AA5}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44841</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1579.16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>-6.51144063264774E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-216200</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.20258620689655171</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-825750</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.3075418994413408</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-935775</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.34235148854438197</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6485575</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1977725</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.30494212155437261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4815850</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-843300</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.17510927458288775</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>412624</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11301425</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2821025</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.24961675186978632</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1589.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-2.5862438791206799E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-203720</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.19089205397301348</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2851500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-796275</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.27924776433456078</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-949125</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.34723556043352999</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6652075</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1949120</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.29300932415825137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4815850</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-831350</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.17262788500472398</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>412624</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11467925</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2780470</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.24245624208389921</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1CE7CA-8905-4C8A-8C3C-2DF3B0C2FCED}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -8223,676 +9565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30372EA1-5CCF-4137-9424-938A20BE20D7}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44846</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1560.78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>-1.1639099267965317E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-231480</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.21690404797601198</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-865950</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.32251396648044695</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-989175</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36188777610097406</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6485575</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-2086605</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.32173014728840543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4899100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-910450</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.18584025637361964</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>431374</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.8051682962176719E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11384675</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2997055</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.26325345255793425</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44841</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1579.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>-6.51144063264774E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-216200</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.20258620689655171</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-825750</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.3075418994413408</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-935775</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.34235148854438197</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6485575</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1977725</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.30494212155437261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4815850</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-843300</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.17510927458288775</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>412624</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11301425</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2821025</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.24961675186978632</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66E9FA7-338A-465C-B22A-F5F9311A3AA5}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44841</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1579.16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>-6.51144063264774E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-216200</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.20258620689655171</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-825750</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.3075418994413408</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-935775</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.34235148854438197</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6485575</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1977725</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.30494212155437261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4815850</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-843300</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.17510927458288775</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>412624</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11301425</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2821025</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.24961675186978632</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1589.51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>-2.5862438791206799E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-203720</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.19089205397301348</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2851500</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-796275</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.27924776433456078</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-949125</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.34723556043352999</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6652075</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1949120</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.29300932415825137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4815850</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-831350</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.17262788500472398</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>412624</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11467925</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2780470</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.24245624208389921</v>
-      </c>
-      <c r="E23">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17FDA18-50E7-497D-A3E6-BA98B4EFBEE2}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -9233,7 +9906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAD0635-4347-4F6C-8D6E-4A9AE5DAE8DB}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -9581,7 +10254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B621682-0ED7-49D0-AE7A-2563703AE322}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -9917,7 +10590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370A622C-DFE0-417B-BFF5-CDA7449D5097}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -10253,7 +10926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA5C229-02D2-46B6-9CCE-EC6023C6286F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -10587,341 +11260,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB79DCB-16F1-431F-A297-0C8D55E47032}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>45016</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1609.17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>1.0880422150328337E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1974900</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-671000</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.33976403868550309</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>669900</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-118200</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.17644424540976264</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3210700</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1029350</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.32059986918740463</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5855500</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1818550</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.31057125779181965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5558300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-976525</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.17568771027112606</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>466957</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.4010758685209505E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11413800</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2795075</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.24488557710841263</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>45009</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1591.85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>1.7156549520766715E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1974900</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-662400</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.33540938781710466</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>669900</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-113700</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.16972682489923868</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3210700</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1051450</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.32748310337309622</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5855500</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1827550</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.3121082742720519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5593300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-934425</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.16706148427583001</v>
-      </c>
-      <c r="E21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>466957</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.3485062485473688E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11448800</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2761975</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.24124580742086507</v>
-      </c>
-      <c r="E23">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel/04-Amt-by-period.xlsx
+++ b/Excel/04-Amt-by-period.xlsx
@@ -1,45 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2768" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6067D880-C0F1-4815-BA80-D591323E70B3}"/>
+  <xr:revisionPtr revIDLastSave="2784" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9613820C-F248-4024-B3BD-9708DE7AA9E2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0616" sheetId="107" r:id="rId1"/>
-    <sheet name="0609" sheetId="106" r:id="rId2"/>
-    <sheet name="0602" sheetId="105" r:id="rId3"/>
-    <sheet name="0526" sheetId="104" r:id="rId4"/>
-    <sheet name="0519" sheetId="103" r:id="rId5"/>
-    <sheet name="0502" sheetId="102" r:id="rId6"/>
-    <sheet name="0428" sheetId="101" r:id="rId7"/>
-    <sheet name="0421" sheetId="100" r:id="rId8"/>
-    <sheet name="0407" sheetId="99" r:id="rId9"/>
-    <sheet name="0331" sheetId="98" r:id="rId10"/>
-    <sheet name="0324" sheetId="97" r:id="rId11"/>
-    <sheet name="0310" sheetId="96" r:id="rId12"/>
-    <sheet name="0303" sheetId="95" r:id="rId13"/>
-    <sheet name="0228" sheetId="94" r:id="rId14"/>
-    <sheet name="0224" sheetId="93" r:id="rId15"/>
-    <sheet name="0210" sheetId="92" r:id="rId16"/>
-    <sheet name="0203" sheetId="91" r:id="rId17"/>
-    <sheet name="0127" sheetId="90" r:id="rId18"/>
-    <sheet name="0120" sheetId="89" r:id="rId19"/>
-    <sheet name="0106" sheetId="88" r:id="rId20"/>
-    <sheet name="1230" sheetId="87" r:id="rId21"/>
-    <sheet name="1223" sheetId="86" r:id="rId22"/>
-    <sheet name="1209" sheetId="85" r:id="rId23"/>
-    <sheet name="1202" sheetId="84" r:id="rId24"/>
-    <sheet name="1125" sheetId="83" r:id="rId25"/>
-    <sheet name="1118" sheetId="82" r:id="rId26"/>
-    <sheet name="1111" sheetId="81" r:id="rId27"/>
-    <sheet name="1104" sheetId="80" r:id="rId28"/>
-    <sheet name="1031" sheetId="79" r:id="rId29"/>
-    <sheet name="1021" sheetId="78" r:id="rId30"/>
-    <sheet name="1012" sheetId="77" r:id="rId31"/>
-    <sheet name="1007" sheetId="76" r:id="rId32"/>
+    <sheet name="0623" sheetId="108" r:id="rId1"/>
+    <sheet name="0616" sheetId="107" r:id="rId2"/>
+    <sheet name="0609" sheetId="106" r:id="rId3"/>
+    <sheet name="0602" sheetId="105" r:id="rId4"/>
+    <sheet name="0526" sheetId="104" r:id="rId5"/>
+    <sheet name="0519" sheetId="103" r:id="rId6"/>
+    <sheet name="0502" sheetId="102" r:id="rId7"/>
+    <sheet name="0428" sheetId="101" r:id="rId8"/>
+    <sheet name="0421" sheetId="100" r:id="rId9"/>
+    <sheet name="0407" sheetId="99" r:id="rId10"/>
+    <sheet name="0331" sheetId="98" r:id="rId11"/>
+    <sheet name="0324" sheetId="97" r:id="rId12"/>
+    <sheet name="0310" sheetId="96" r:id="rId13"/>
+    <sheet name="0303" sheetId="95" r:id="rId14"/>
+    <sheet name="0228" sheetId="94" r:id="rId15"/>
+    <sheet name="0224" sheetId="93" r:id="rId16"/>
+    <sheet name="0210" sheetId="92" r:id="rId17"/>
+    <sheet name="0203" sheetId="91" r:id="rId18"/>
+    <sheet name="0127" sheetId="90" r:id="rId19"/>
+    <sheet name="0120" sheetId="89" r:id="rId20"/>
+    <sheet name="0106" sheetId="88" r:id="rId21"/>
+    <sheet name="1230" sheetId="87" r:id="rId22"/>
+    <sheet name="1223" sheetId="86" r:id="rId23"/>
+    <sheet name="1209" sheetId="85" r:id="rId24"/>
+    <sheet name="1202" sheetId="84" r:id="rId25"/>
+    <sheet name="1125" sheetId="83" r:id="rId26"/>
+    <sheet name="1118" sheetId="82" r:id="rId27"/>
+    <sheet name="1111" sheetId="81" r:id="rId28"/>
+    <sheet name="1104" sheetId="80" r:id="rId29"/>
+    <sheet name="1031" sheetId="79" r:id="rId30"/>
+    <sheet name="1021" sheetId="78" r:id="rId31"/>
+    <sheet name="1012" sheetId="77" r:id="rId32"/>
+    <sheet name="1007" sheetId="76" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="11">
   <si>
     <t>As end of</t>
   </si>
@@ -480,11 +481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9C509E-842C-4130-BBA9-64F818CC1D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7328950-F3EE-41A5-A9CA-A231E2C7BF30}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -502,19 +503,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="10">
-        <v>45093</v>
+        <v>45100</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1">
-        <v>1559.39</v>
+        <v>1505.52</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="E2" s="9">
         <f>(E1-E13)/E13</f>
-        <v>2.7522168849793264E-3</v>
+        <v>-3.4545559481592235E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75">
@@ -539,17 +540,17 @@
         <v>4</v>
       </c>
       <c r="B4" s="7">
-        <v>2014740</v>
+        <v>2090190</v>
       </c>
       <c r="C4" s="7">
-        <v>-834595</v>
+        <v>-902370</v>
       </c>
       <c r="D4" s="5">
         <f>C4/B4</f>
-        <v>-0.4142445179030545</v>
+        <v>-0.43171673388543624</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -557,14 +558,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>764100</v>
+        <v>837000</v>
       </c>
       <c r="C5" s="7">
-        <v>-144900</v>
+        <v>-174900</v>
       </c>
       <c r="D5" s="5">
         <f>C5/B5</f>
-        <v>-0.18963486454652531</v>
+        <v>-0.20896057347670252</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -579,11 +580,11 @@
         <v>3233500</v>
       </c>
       <c r="C6" s="7">
-        <v>-1227500</v>
+        <v>-1295900</v>
       </c>
       <c r="D6" s="5">
         <f>C6/B6</f>
-        <v>-0.37961960723674038</v>
+        <v>-0.40077315602288544</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -593,15 +594,15 @@
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <f>SUM(B4:B6)</f>
-        <v>6012340</v>
+        <v>6160690</v>
       </c>
       <c r="C7" s="6">
         <f>SUM(C4:C6)</f>
-        <v>-2206995</v>
+        <v>-2373170</v>
       </c>
       <c r="D7" s="5">
         <f>C7/B7</f>
-        <v>-0.36707754385147878</v>
+        <v>-0.38521172141432208</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -616,27 +617,27 @@
         <v>2</v>
       </c>
       <c r="B9" s="7">
-        <v>5558300</v>
+        <v>5579700</v>
       </c>
       <c r="C9" s="7">
-        <v>-1306290</v>
+        <v>-1513180</v>
       </c>
       <c r="D9" s="5">
         <f>C9/B9</f>
-        <v>-0.23501610204558948</v>
+        <v>-0.27119379178092012</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="7"/>
       <c r="C10" s="7">
-        <v>472105</v>
+        <v>474142.5</v>
       </c>
       <c r="D10" s="5">
         <f>C10/B9</f>
-        <v>8.4936941151071366E-2</v>
+        <v>8.4976342814129788E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
@@ -645,15 +646,15 @@
       </c>
       <c r="B11" s="6">
         <f>B7+B9</f>
-        <v>11570640</v>
+        <v>11740390</v>
       </c>
       <c r="C11" s="6">
         <f>C7+C9</f>
-        <v>-3513285</v>
+        <v>-3886350</v>
       </c>
       <c r="D11" s="5">
         <f>C11/B11</f>
-        <v>-0.30363791458380868</v>
+        <v>-0.33102392680311299</v>
       </c>
       <c r="E11">
         <f>E4+E5+E6+E9</f>
@@ -665,18 +666,18 @@
         <v>0</v>
       </c>
       <c r="C13" s="10">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1555.11</v>
+        <v>1559.39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="E14" s="9">
-        <v>1.5615203761755391E-2</v>
+        <v>2.7522168849793264E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -701,16 +702,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="7">
-        <v>1925100</v>
+        <v>2014740</v>
       </c>
       <c r="C16" s="7">
-        <v>-831200</v>
+        <v>-834595</v>
       </c>
       <c r="D16" s="5">
-        <v>-0.43176977819334061</v>
+        <v>-0.4142445179030545</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -721,10 +722,10 @@
         <v>764100</v>
       </c>
       <c r="C17" s="7">
-        <v>-144300</v>
+        <v>-144900</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.18884962701217117</v>
+        <v>-0.18963486454652531</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -738,10 +739,10 @@
         <v>3233500</v>
       </c>
       <c r="C18" s="7">
-        <v>-1276500</v>
+        <v>-1227500</v>
       </c>
       <c r="D18" s="5">
-        <v>-0.39477346528529456</v>
+        <v>-0.37961960723674038</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -750,13 +751,13 @@
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
-        <v>5922700</v>
+        <v>6012340</v>
       </c>
       <c r="C19" s="6">
-        <v>-2252000</v>
+        <v>-2206995</v>
       </c>
       <c r="D19" s="5">
-        <v>-0.38023198878889697</v>
+        <v>-0.36707754385147878</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
@@ -771,13 +772,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="7">
-        <v>5734150</v>
+        <v>5558300</v>
       </c>
       <c r="C21" s="7">
-        <v>-1261105</v>
+        <v>-1306290</v>
       </c>
       <c r="D21" s="5">
-        <v>-0.21992884734441898</v>
+        <v>-0.23501610204558948</v>
       </c>
       <c r="E21">
         <v>14</v>
@@ -786,10 +787,10 @@
     <row r="22" spans="1:5">
       <c r="B22" s="7"/>
       <c r="C22" s="7">
-        <v>484139.5</v>
+        <v>472105</v>
       </c>
       <c r="D22" s="5">
-        <v>8.4430909550674463E-2</v>
+        <v>8.4936941151071366E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75">
@@ -797,16 +798,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="6">
-        <v>11656850</v>
+        <v>11570640</v>
       </c>
       <c r="C23" s="6">
-        <v>-3513105</v>
+        <v>-3513285</v>
       </c>
       <c r="D23" s="5">
-        <v>-0.30137687282584918</v>
+        <v>-0.30363791458380868</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -815,6 +816,342 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA5C229-02D2-46B6-9CCE-EC6023C6286F}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>45028</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1597.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>1.2700767879675584E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1974900</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-680600</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.3446250443060408</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>669900</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-147300</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.21988356471115092</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3210700</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1056350</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.32900925031924505</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5855500</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1884250</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.32179147809751518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5558300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1007575</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.18127395066836982</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>469554.5</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.4478077829552203E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11413800</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2891825</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.25336215808933044</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>45023</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1577.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-1.9948172039001556E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1974900</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-697000</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.35292926224112614</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>669900</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-144150</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.21518137035378415</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3210700</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1096800</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.34160774908898373</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5855500</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1937950</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.33096234309623429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5558300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1029750</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.18526347984095856</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>469554.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.4478077829552203E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11413800</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2967700</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.26000981268289264</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB79DCB-16F1-431F-A297-0C8D55E47032}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -1151,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3673976-3CD8-402C-A94E-027C764A8651}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -1488,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8DBAFE-2CA1-43E9-AA4C-8C4A7E6D5B6E}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -1825,7 +2162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6F0B87-89F1-4BDE-A748-CD348F83E0A4}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2162,7 +2499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1756BD0B-A79F-4521-9DFA-CED233837B82}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2499,7 +2836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBD0CC4-22F0-49BC-B057-37E97FBE7A14}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -2836,7 +3173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4DE434-8EB0-459E-8102-3AA330B0A12F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3173,7 +3510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F01A0D-25B8-4CB3-8FCF-F0CBE7FF18A0}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3510,7 +3847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CB343B-E546-48B7-B00F-DB173C381BF1}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -3847,7 +4184,342 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9C509E-842C-4130-BBA9-64F818CC1D36}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>45093</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1559.39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>2.7522168849793264E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2014740</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-834595</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.4142445179030545</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>764100</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-144900</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.18963486454652531</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3233500</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1227500</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.37961960723674038</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6012340</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2206995</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.36707754385147878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5558300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-1306290</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.23501610204558948</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>472105</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.4936941151071366E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11570640</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-3513285</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.30363791458380868</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>45086</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1555.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>1.5615203761755391E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1925100</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-831200</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.43176977819334061</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>764100</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-144300</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.18884962701217117</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3233500</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1276500</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.39477346528529456</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5922700</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-2252000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.38023198878889697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5734150</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-1261105</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.21992884734441898</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>484139.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.4430909550674463E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11656850</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-3513105</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.30137687282584918</v>
+      </c>
+      <c r="E23">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7448AD41-CBFC-4D5D-B471-4BAE4228F78D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -4184,7 +4856,3040 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE040F4-D437-4BCC-BFB7-6750205043CB}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44939</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>390600</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-27600</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-7.0660522273425494E-2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-440650</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.17255017131669115</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2734950</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-865650</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.31651401305325511</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5679300</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1333900</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.23487049460320814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-625800</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.11679077319299032</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>499982</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.3309818412556228E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11037600</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-1959700</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.17754765528738131</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44925</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>243000</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-37800</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.15555555555555556</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2767500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-538500</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.194579945799458</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2734950</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-951750</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.34799539296879284</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5745450</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1528050</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.26595828003028482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-703700</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.13132896627661758</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11103750</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2231750</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.20099065630980525</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94DAE9E-5892-4688-B0B8-49B7ABD40E7A}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44925</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>243000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-37800</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.15555555555555556</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2767500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-538500</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.194579945799458</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2734950</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-951750</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.34799539296879284</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5745450</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1528050</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.26595828003028482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-703700</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.13132896627661758</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11103750</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2231750</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.20099065630980525</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44918</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>243000</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-42600</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.17530864197530865</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2818500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-631550</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.22407308852226362</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1084200</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.36255413064923342</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6051950</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1758350</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.29054271763646428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-740500</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.13819681615437732</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11410250</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2498850</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.21900046011261803</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF5337A-3AF7-4E82-A563-E0179D83D079}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44918</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>243000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-42600</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.17530864197530865</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2818500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-631550</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.22407308852226362</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1084200</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36255413064923342</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6051950</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1758350</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.29054271763646428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-740500</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.13819681615437732</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11410250</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2498850</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.21900046011261803</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44904</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-1.126928723281129E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>291600</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-57120</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.19588477366255144</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-561550</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.21989231522271169</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1106200</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.36991088297747832</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5835800</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1724870</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.29556701737550978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-809300</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.15103670940410205</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11194100</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2534170</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.22638443465754282</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB25F7-2A12-4AC1-9D7D-356A85181936}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44904</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1623.13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>-1.126928723281129E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>291600</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-57120</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.19588477366255144</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-561550</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.21989231522271169</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1106200</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36991088297747832</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5835800</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1724870</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.29556701737550978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-809300</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.15103670940410205</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11194100</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2534170</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.22638443465754282</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44897</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1641.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>1.2826682460946294E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-72600</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.21340388007054673</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-558350</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.21863925599608419</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1086950</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.36347372469026401</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5884400</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1717900</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.29194140439127186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-777300</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.14506466603213705</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11242700</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2495200</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.22193956967632331</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10FBD0F-E711-40AB-B04C-504DAC97DAD1}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44897</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1641.63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>1.2826682460946294E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-72600</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.21340388007054673</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-558350</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.21863925599608419</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1086950</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36347372469026401</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5884400</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1717900</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.29194140439127186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5358300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-777300</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.14506466603213705</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>495908</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2549502640762935E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11242700</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2495200</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.22193956967632331</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44890</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1620.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>2.1392622636608643E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-72720</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.21375661375661376</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-640825</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.25093489965736659</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1101250</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.3682556137036232</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5884400</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1814795</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.30840782407722112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5283300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-791200</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.14975488804345768</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>470895</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.9128953494974739E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11167700</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2605995</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.2333510928839421</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E048857-6133-4F63-8B69-BD836A7A1BCA}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44890</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1620.84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>2.1392622636608643E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-72720</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.21375661375661376</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-640825</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.25093489965736659</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1101250</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.3682556137036232</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5884400</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1814795</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.30840782407722112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5283300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-791200</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.14975488804345768</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>470895</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.9128953494974739E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11167700</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2605995</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.2333510928839421</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44883</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1617.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-1.2160338119697705E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-67560</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.19858906525573192</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2658750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-573150</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.21557122708039492</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1086350</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.36327308599040276</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5989400</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1727060</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.28835275653654791</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5189100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-700200</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.13493669422443197</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>470895</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.074695033820894E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11178500</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2427260</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.21713646732566982</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8DDDB9-2F12-43CB-8C09-0C6CA6EFFA7C}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44883</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1617.38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>-1.2160338119697705E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>340200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-67560</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.19858906525573192</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2658750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-573150</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.21557122708039492</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1086350</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36327308599040276</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5989400</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1727060</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.28835275653654791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5189100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-700200</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.13493669422443197</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>470895</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.074695033820894E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11178500</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2427260</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.21713646732566982</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44876</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1637.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>6.7452899798317841E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>388800</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-87360</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.22469135802469137</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-659950</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.2584238864415076</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-1038350</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.34722199000150478</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>5933000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1785660</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.30097084105848643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5003100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-693500</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.13861405928324438</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>461836</v>
+      </c>
+      <c r="D22" s="5">
+        <v>9.2309967819951627E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>10936100</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2479160</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.22669507411234352</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1DF9C9-A045-4537-847E-58AB49A0F240}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44876</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1637.29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>6.7452899798317841E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>388800</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-87360</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.22469135802469137</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553750</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-659950</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.2584238864415076</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2990450</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-1038350</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.34722199000150478</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>5933000</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1785660</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.30097084105848643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5003100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-693500</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.13861405928324438</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>461836</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>9.2309967819951627E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>10936100</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2479160</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.22669507411234352</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44869</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1626.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>1.0915239066112997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-199900</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.18731259370314843</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2553700</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-679325</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.26601597681795042</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2515250</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-894158</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.3554946824371335</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6136150</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1773383</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.28900580983189783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4924100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-800150</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.1624966999045511</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>434774</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.8295119920391546E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11060250</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2573533</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.23268307678397865</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36C1D16-9650-498C-A9CB-3013046074CB}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44869</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1626.32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>1.0915239066112997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-199900</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.18731259370314843</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2553700</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-679325</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.26601597681795042</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2515250</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-894158</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.3554946824371335</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6136150</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1773383</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.28900580983189783</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4924100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-800150</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.1624966999045511</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>434774</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.8295119920391546E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11060250</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2573533</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.23268307678397865</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44865</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1608.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>1.0064480483195502E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-215520</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.20194902548725638</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-793200</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.2954189944134078</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2579625</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-968625</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.37549062363715657</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6331825</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1977345</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.31228674197407541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4924100</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-890750</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.18089600129972991</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>434814</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.8303243232265793E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11255925</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2868095</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.25480757911944152</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F925CCFA-0237-4842-A0BC-CB57165C2065}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -4519,3040 +8224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE040F4-D437-4BCC-BFB7-6750205043CB}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44939</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>390600</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-27600</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-7.0660522273425494E-2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-440650</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.17255017131669115</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2734950</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-865650</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.31651401305325511</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5679300</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1333900</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.23487049460320814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-625800</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.11679077319299032</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>499982</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.3309818412556228E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11037600</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-1959700</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.17754765528738131</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44925</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>243000</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-37800</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.15555555555555556</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2767500</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-538500</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.194579945799458</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2734950</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-951750</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.34799539296879284</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5745450</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1528050</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.26595828003028482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-703700</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.13132896627661758</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11103750</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2231750</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.20099065630980525</v>
-      </c>
-      <c r="E23">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94DAE9E-5892-4688-B0B8-49B7ABD40E7A}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44925</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>243000</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-37800</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.15555555555555556</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2767500</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-538500</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.194579945799458</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2734950</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-951750</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.34799539296879284</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5745450</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1528050</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.26595828003028482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-703700</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.13132896627661758</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11103750</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2231750</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.20099065630980525</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44918</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>243000</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-42600</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.17530864197530865</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2818500</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-631550</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.22407308852226362</v>
-      </c>
-      <c r="E17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1084200</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.36255413064923342</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6051950</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1758350</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.29054271763646428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-740500</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.13819681615437732</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11410250</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2498850</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.21900046011261803</v>
-      </c>
-      <c r="E23">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF5337A-3AF7-4E82-A563-E0179D83D079}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44918</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>243000</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-42600</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.17530864197530865</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2818500</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-631550</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.22407308852226362</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1084200</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36255413064923342</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6051950</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1758350</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.29054271763646428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-740500</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.13819681615437732</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11410250</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2498850</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.21900046011261803</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44904</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>-1.126928723281129E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>291600</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-57120</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.19588477366255144</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-561550</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.21989231522271169</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1106200</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.36991088297747832</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5835800</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1724870</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.29556701737550978</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-809300</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.15103670940410205</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11194100</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2534170</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.22638443465754282</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB25F7-2A12-4AC1-9D7D-356A85181936}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44904</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1623.13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>-1.126928723281129E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>291600</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-57120</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.19588477366255144</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-561550</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.21989231522271169</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1106200</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36991088297747832</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5835800</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1724870</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.29556701737550978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-809300</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.15103670940410205</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11194100</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2534170</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.22638443465754282</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44897</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1641.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>1.2826682460946294E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-72600</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.21340388007054673</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-558350</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.21863925599608419</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1086950</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.36347372469026401</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5884400</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1717900</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.29194140439127186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-777300</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.14506466603213705</v>
-      </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11242700</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2495200</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.22193956967632331</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10FBD0F-E711-40AB-B04C-504DAC97DAD1}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44897</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1641.63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>1.2826682460946294E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-72600</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.21340388007054673</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-558350</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.21863925599608419</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1086950</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36347372469026401</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5884400</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1717900</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.29194140439127186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5358300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-777300</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.14506466603213705</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>495908</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2549502640762935E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11242700</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2495200</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.22193956967632331</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44890</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1620.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>2.1392622636608643E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-72720</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.21375661375661376</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-640825</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.25093489965736659</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1101250</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.3682556137036232</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5884400</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1814795</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.30840782407722112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5283300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-791200</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.14975488804345768</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>470895</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.9128953494974739E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11167700</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2605995</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.2333510928839421</v>
-      </c>
-      <c r="E23">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E048857-6133-4F63-8B69-BD836A7A1BCA}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44890</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1620.84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>2.1392622636608643E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-72720</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.21375661375661376</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-640825</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.25093489965736659</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1101250</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.3682556137036232</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5884400</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1814795</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.30840782407722112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5283300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-791200</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.14975488804345768</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>470895</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.9128953494974739E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11167700</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2605995</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.2333510928839421</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44883</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1617.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>-1.2160338119697705E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-67560</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.19858906525573192</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2658750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-573150</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.21557122708039492</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1086350</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.36327308599040276</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5989400</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1727060</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.28835275653654791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5189100</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-700200</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.13493669422443197</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>470895</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.074695033820894E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11178500</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2427260</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.21713646732566982</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8DDDB9-2F12-43CB-8C09-0C6CA6EFFA7C}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44883</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1617.38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>-1.2160338119697705E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>340200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-67560</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.19858906525573192</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2658750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-573150</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.21557122708039492</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1086350</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36327308599040276</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5989400</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1727060</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.28835275653654791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5189100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-700200</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.13493669422443197</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>470895</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.074695033820894E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11178500</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2427260</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.21713646732566982</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44876</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1637.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>6.7452899798317841E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>388800</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-87360</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.22469135802469137</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-659950</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.2584238864415076</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1038350</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.34722199000150478</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5933000</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1785660</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.30097084105848643</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5003100</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-693500</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.13861405928324438</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>461836</v>
-      </c>
-      <c r="D22" s="5">
-        <v>9.2309967819951627E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>10936100</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2479160</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.22669507411234352</v>
-      </c>
-      <c r="E23">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1DF9C9-A045-4537-847E-58AB49A0F240}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44876</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1637.29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>6.7452899798317841E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>388800</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-87360</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.22469135802469137</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553750</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-659950</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.2584238864415076</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2990450</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1038350</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.34722199000150478</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5933000</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1785660</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.30097084105848643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5003100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-693500</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.13861405928324438</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>461836</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>9.2309967819951627E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>10936100</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2479160</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.22669507411234352</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44869</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1626.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>1.0915239066112997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-199900</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.18731259370314843</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2553700</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-679325</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.26601597681795042</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2515250</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-894158</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.3554946824371335</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6136150</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1773383</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.28900580983189783</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4924100</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-800150</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.1624966999045511</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>434774</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.8295119920391546E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11060250</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2573533</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.23268307678397865</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36C1D16-9650-498C-A9CB-3013046074CB}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44869</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1626.32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>1.0915239066112997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-199900</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.18731259370314843</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2553700</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-679325</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.26601597681795042</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2515250</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-894158</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.3554946824371335</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6136150</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1773383</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.28900580983189783</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4924100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-800150</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.1624966999045511</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>434774</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.8295119920391546E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11060250</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2573533</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.23268307678397865</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44865</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1608.76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>1.0064480483195502E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-215520</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.20194902548725638</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-793200</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.2954189944134078</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2579625</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-968625</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.37549062363715657</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6331825</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1977345</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.31228674197407541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4924100</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-890750</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.18089600129972991</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>434814</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.8303243232265793E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11255925</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2868095</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.25480757911944152</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1547CAF5-AB95-4B4D-81C0-7BB1FCCFFE03}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -7889,7 +8561,1013 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5107ADB-96F4-4457-BBFF-9DCEC53934AC}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44855</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1592.73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>2.0470533963787365E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-222600</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.20858320839580211</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-802575</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.29891061452513967</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-981525</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.35908903827685551</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6485575</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2006700</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.30940972851289206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4899100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-903700</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.18446245228715477</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>431374</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.8051682962176719E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11384675</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2910400</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.25564190457786456</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44846</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1560.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-215920</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.20232383808095952</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-804150</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.29949720670391061</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-953475</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.34882699958842089</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6485575</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1973545</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.30429761432101238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4815820</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-874500</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.1815890128783883</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>431374</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.9574361167983854E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11301395</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2848045</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.25200826977554541</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30372EA1-5CCF-4137-9424-938A20BE20D7}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44846</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1560.78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>-1.1639099267965317E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-231480</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.21690404797601198</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-865950</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.32251396648044695</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-989175</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.36188777610097406</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6485575</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-2086605</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.32173014728840543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4899100</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-910450</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.18584025637361964</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>431374</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10/B9</f>
+        <v>8.8051682962176719E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11384675</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2997055</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.26325345255793425</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44841</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1579.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-6.51144063264774E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-216200</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.20258620689655171</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-825750</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.3075418994413408</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-935775</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.34235148854438197</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6485575</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1977725</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.30494212155437261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4815850</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-843300</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.17510927458288775</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>412624</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11301425</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2821025</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.24961675186978632</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66E9FA7-338A-465C-B22A-F5F9311A3AA5}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44841</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1579.16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="E2" s="9">
+        <f>(E1-E13)/E13</f>
+        <v>-6.51144063264774E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-216200</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4/B4</f>
+        <v>-0.20258620689655171</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2685000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-825750</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5/B5</f>
+        <v>-0.3075418994413408</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-935775</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6/B6</f>
+        <v>-0.34235148854438197</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>6485575</v>
+      </c>
+      <c r="C7" s="6">
+        <f>SUM(C4:C6)</f>
+        <v>-1977725</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7/B7</f>
+        <v>-0.30494212155437261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="B8" s="6"/>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4815850</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-843300</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9/B9</f>
+        <v>-0.17510927458288775</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>412624</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <f>B7+B9</f>
+        <v>11301425</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C7+C9</f>
+        <v>-2821025</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11/B11</f>
+        <v>-0.24961675186978632</v>
+      </c>
+      <c r="E11">
+        <f>E4+E5+E6+E9</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1589.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14" s="9">
+        <v>-2.5862438791206799E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1067200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-203720</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.19089205397301348</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2851500</v>
+      </c>
+      <c r="C17" s="7">
+        <v>-796275</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-0.27924776433456078</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2733375</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-949125</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.34723556043352999</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>6652075</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-1949120</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-0.29300932415825137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4815850</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-831350</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.17262788500472398</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7">
+        <v>412624</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
+        <v>11467925</v>
+      </c>
+      <c r="C23" s="6">
+        <v>-2780470</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.24245624208389921</v>
+      </c>
+      <c r="E23">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6C0A1F-7401-4211-8CBA-1ED84DA6D6AC}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -8224,1013 +9902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5107ADB-96F4-4457-BBFF-9DCEC53934AC}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44855</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1592.73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>2.0470533963787365E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-222600</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.20858320839580211</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-802575</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.29891061452513967</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-981525</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.35908903827685551</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6485575</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-2006700</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.30940972851289206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4899100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-903700</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.18446245228715477</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>431374</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.8051682962176719E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11384675</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2910400</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.25564190457786456</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44846</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1560.78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-215920</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.20232383808095952</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-804150</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.29949720670391061</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-953475</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.34882699958842089</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6485575</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1973545</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.30429761432101238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4815820</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-874500</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.1815890128783883</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>431374</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.9574361167983854E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11301395</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2848045</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.25200826977554541</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30372EA1-5CCF-4137-9424-938A20BE20D7}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44846</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1560.78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>-1.1639099267965317E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-231480</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.21690404797601198</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-865950</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.32251396648044695</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-989175</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.36188777610097406</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6485575</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-2086605</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.32173014728840543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4899100</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-910450</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.18584025637361964</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>431374</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.8051682962176719E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11384675</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2997055</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.26325345255793425</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>44841</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1579.16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>-6.51144063264774E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-216200</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.20258620689655171</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-825750</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.3075418994413408</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-935775</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.34235148854438197</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6485575</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1977725</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.30494212155437261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4815850</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-843300</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.17510927458288775</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>412624</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11301425</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2821025</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.24961675186978632</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66E9FA7-338A-465C-B22A-F5F9311A3AA5}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>44841</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1579.16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>-6.51144063264774E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-216200</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.20258620689655171</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2685000</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-825750</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.3075418994413408</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-935775</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.34235148854438197</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>6485575</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1977725</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.30494212155437261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4815850</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-843300</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.17510927458288775</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>412624</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11301425</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2821025</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.24961675186978632</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1589.51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>-2.5862438791206799E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1067200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-203720</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.19089205397301348</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2851500</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-796275</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.27924776433456078</v>
-      </c>
-      <c r="E17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2733375</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-949125</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.34723556043352999</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>6652075</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1949120</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.29300932415825137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4815850</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-831350</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.17262788500472398</v>
-      </c>
-      <c r="E21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>412624</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11467925</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2780470</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.24245624208389921</v>
-      </c>
-      <c r="E23">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1CE7CA-8905-4C8A-8C3C-2DF3B0C2FCED}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -9565,7 +10237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17FDA18-50E7-497D-A3E6-BA98B4EFBEE2}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -9906,7 +10578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CAD0635-4347-4F6C-8D6E-4A9AE5DAE8DB}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -10254,7 +10926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B621682-0ED7-49D0-AE7A-2563703AE322}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -10590,7 +11262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{370A622C-DFE0-417B-BFF5-CDA7449D5097}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -10924,340 +11596,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA5C229-02D2-46B6-9CCE-EC6023C6286F}">
-  <dimension ref="A1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>45028</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1597.1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="E2" s="9">
-        <f>(E1-E13)/E13</f>
-        <v>1.2700767879675584E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1974900</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-680600</v>
-      </c>
-      <c r="D4" s="5">
-        <f>C4/B4</f>
-        <v>-0.3446250443060408</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>669900</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-147300</v>
-      </c>
-      <c r="D5" s="5">
-        <f>C5/B5</f>
-        <v>-0.21988356471115092</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7">
-        <v>3210700</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-1056350</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6/B6</f>
-        <v>-0.32900925031924505</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>5855500</v>
-      </c>
-      <c r="C7" s="6">
-        <f>SUM(C4:C6)</f>
-        <v>-1884250</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7/B7</f>
-        <v>-0.32179147809751518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
-      <c r="B8" s="6"/>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>5558300</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-1007575</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9/B9</f>
-        <v>-0.18127395066836982</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>469554.5</v>
-      </c>
-      <c r="D10" s="5">
-        <f>C10/B9</f>
-        <v>8.4478077829552203E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <f>B7+B9</f>
-        <v>11413800</v>
-      </c>
-      <c r="C11" s="6">
-        <f>C7+C9</f>
-        <v>-2891825</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C11/B11</f>
-        <v>-0.25336215808933044</v>
-      </c>
-      <c r="E11">
-        <f>E4+E5+E6+E9</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>45023</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1577.07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="E14" s="9">
-        <v>-1.9948172039001556E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1974900</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-697000</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.35292926224112614</v>
-      </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" s="7">
-        <v>669900</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-144150</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-0.21518137035378415</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3210700</v>
-      </c>
-      <c r="C18" s="7">
-        <v>-1096800</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.34160774908898373</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6">
-        <v>5855500</v>
-      </c>
-      <c r="C19" s="6">
-        <v>-1937950</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-0.33096234309623429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7">
-        <v>5558300</v>
-      </c>
-      <c r="C21" s="7">
-        <v>-1029750</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-0.18526347984095856</v>
-      </c>
-      <c r="E21">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>469554.5</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.4478077829552203E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>11413800</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-2967700</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-0.26000981268289264</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>